--- a/biology/Zoologie/Glyphoglossus_smithi/Glyphoglossus_smithi.xlsx
+++ b/biology/Zoologie/Glyphoglossus_smithi/Glyphoglossus_smithi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphoglossus smithi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphoglossus smithi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Malaisie orientale, dans le Nord de Bornéo[1],[2]. Elle se rencontre dans les États du Sabah et du Sarawak.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Malaisie orientale, dans le Nord de Bornéo,. Elle se rencontre dans les États du Sabah et du Sarawak.
 Sa présence est incertaine en Indonésie et au Brunei.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Harrison W. Smith[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Harrison W. Smith.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour &amp; Noble, 1916 : New Amphibians and a New Reptile from Sarawak.  Proceedings of the New England Zoölogical Club, vol. 6, p. 19-22 (texte intégral).</t>
         </is>
